--- a/SuppXLS/ScenDem_DEM_Ref_ELC_Proj.xlsx
+++ b/SuppXLS/ScenDem_DEM_Ref_ELC_Proj.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2110A283-1A00-4BBC-BE80-BF509B50CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B32EC96-536E-4BEF-8445-E0C8D1F1DC35}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2110A283-1A00-4BBC-BE80-BF509B50CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5DC55F1-1825-4E3B-BFC2-8500462D2214}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
-    <sheet name="IND_MELC" sheetId="2" r:id="rId2"/>
+    <sheet name="MANELC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -279,10 +279,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -828,7 +828,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,10 +927,10 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -973,15 +973,14 @@
         <v>2025</v>
       </c>
       <c r="F4" s="10">
-        <f>BY_MELC!$H$4*(K4)</f>
-        <v>3318.1076531301674</v>
+        <v>3755.2094422803921</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="13">
-        <v>1.1595445352697871</v>
+      <c r="K4" s="12">
+        <v>9.4822485813413682E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,16 +991,13 @@
         <v>2030</v>
       </c>
       <c r="F5" s="10">
-        <f>BY_MELC!$H$4*(K5)</f>
-        <v>4142.2574692157614</v>
+        <v>5906.8059925697244</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="11">
-        <v>1.4475515909131265</v>
-      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -1011,16 +1007,13 @@
         <v>2035</v>
       </c>
       <c r="F6" s="10">
-        <f>BY_MELC!$H$4*(K6)</f>
-        <v>5029.9962755546021</v>
+        <v>9291.1880336213835</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="11">
-        <v>1.7577804289274863</v>
-      </c>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1030,16 +1023,13 @@
         <v>2040</v>
       </c>
       <c r="F7" s="10">
-        <f>BY_MELC!$H$4*(K7)</f>
-        <v>5969.3463394956079</v>
+        <v>14614.696197014158</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="11">
-        <v>2.0860453157887049</v>
-      </c>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -1049,15 +1039,12 @@
         <v>2045</v>
       </c>
       <c r="F8" s="10">
-        <f>BY_MELC!$H$4*(K8)</f>
-        <v>6956.2968729223376</v>
+        <v>22988.378252395603</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="11">
-        <v>2.4309446431317987</v>
-      </c>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -1067,15 +1054,12 @@
         <v>2050</v>
       </c>
       <c r="F9" s="10">
-        <f>BY_MELC!$H$4*(K9)</f>
-        <v>7994.3086724659179</v>
+        <v>36159.871375443494</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="11">
-        <v>2.7936878195235799</v>
-      </c>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K10" s="11"/>
